--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Nos"/>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -145,6 +151,9 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -154,7 +163,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -172,8 +181,8 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,16 +190,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -512,7 +518,7 @@
   <cols>
     <col min="1" max="1" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -524,31 +530,31 @@
         <v>11</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
         <f>COUNT(A2:A1048576)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="21">
         <v>0.4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="21">
@@ -557,14 +563,14 @@
       <c r="B4" s="21">
         <v>0.4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,90 +584,90 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.149999999999995" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="11">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+      <c r="G1" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>210000000000</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>0.0002</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+      <c r="G2" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>210000000000</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>0.0002</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>210000000000</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>0.0002</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,15 +681,15 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
@@ -697,177 +703,177 @@
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>150</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7">
         <f>COUNT(A2:A1048576)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>-100</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,10 +891,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.149999999999995">
@@ -899,155 +905,155 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
         <f>COUNT(A2:A1048576)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +83,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -163,9 +157,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,7 +172,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -190,7 +181,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -198,6 +189,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,7 +512,7 @@
   <cols>
     <col min="1" max="1" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -569,8 +563,8 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,33 +582,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="10">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="5">
@@ -623,17 +617,17 @@
       <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>210000000000</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0.0002</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
@@ -642,10 +636,10 @@
       <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>210000000000</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.0002</v>
       </c>
       <c r="E3" s="6"/>
@@ -659,15 +653,15 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>210000000000</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.0002</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,11 +679,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
@@ -891,10 +885,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.149999999999995">
@@ -942,8 +936,8 @@
       <c r="D4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
     </row>
